--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -1,101 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE0C77E8-0C32-974C-BA14-2E64D6131DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="1180" windowWidth="35840" windowHeight="20420" xr2:uid="{159EE873-5A7F-774A-A6EC-9E2E088E7AD7}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>语文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩
-姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,31 +60,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -444,90 +444,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6898FA5D-C744-7D40-9B81-7F2CFF69CA43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="34">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+    <row r="1" ht="31" customHeight="1" s="2">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            成绩
+姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>英语</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>总分</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>张</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>85</v>
       </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>王</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>李</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>85</v>
       </c>
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>赵</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>100</v>
+      </c>
+      <c r="E5">
+        <f>SUM(B5:D5)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,12 +64,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -449,15 +452,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" s="2">
+    <row r="1" ht="31" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">            成绩
@@ -482,6 +485,16 @@
       <c r="E1" s="0" t="inlineStr">
         <is>
           <t>总分</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>分数</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>姓名</t>
         </is>
       </c>
     </row>
@@ -500,8 +513,19 @@
       <c r="D2" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <f>SUM(B2:D2)</f>
+        <v/>
+      </c>
+      <c r="F2" s="2">
+        <f>IF(E2&gt;250, "A", "B")</f>
+        <v/>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>LOOKUP(H2, D2:D5, A2:A5)</f>
         <v/>
       </c>
     </row>
@@ -520,8 +544,12 @@
       <c r="D3" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <f>SUM(B3:D3)</f>
+        <v/>
+      </c>
+      <c r="F3" s="2">
+        <f>IF(E3&gt;250, "A", "B")</f>
         <v/>
       </c>
     </row>
@@ -540,8 +568,12 @@
       <c r="D4" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <f>SUM(B4:D4)</f>
+        <v/>
+      </c>
+      <c r="F4" s="2">
+        <f>IF(E4&gt;250, "A", "B")</f>
         <v/>
       </c>
     </row>
@@ -560,8 +592,12 @@
       <c r="D5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <f>SUM(B5:D5)</f>
+        <v/>
+      </c>
+      <c r="F5" s="2">
+        <f>IF(E5&gt;250, "A", "B")</f>
         <v/>
       </c>
     </row>
